--- a/DATA_goal/Junction_Flooding_338.xlsx
+++ b/DATA_goal/Junction_Flooding_338.xlsx
@@ -450,7 +450,7 @@
     <col width="7" customWidth="1" min="6" max="6"/>
     <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
@@ -464,7 +464,7 @@
     <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
     <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
     <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
@@ -655,103 +655,103 @@
         <v>45019.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.54</v>
+        <v>5.38</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.52</v>
+        <v>5.21</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>1.32</v>
+        <v>13.17</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>1.12</v>
+        <v>11.19</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.5</v>
+        <v>5.04</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>1.34</v>
+        <v>13.38</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0.8</v>
+        <v>7.97</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.38</v>
+        <v>3.77</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.62</v>
+        <v>6.17</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.64</v>
+        <v>6.37</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.62</v>
+        <v>6.16</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.17</v>
+        <v>1.68</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.48</v>
+        <v>4.81</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0.68</v>
+        <v>6.85</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.44</v>
+        <v>4.45</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.03</v>
+        <v>0.3</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.04</v>
+        <v>0.42</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>7.22</v>
+        <v>72.19</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>1.43</v>
+        <v>14.31</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.46</v>
+        <v>4.64</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>0.85</v>
+        <v>8.51</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.63</v>
+        <v>6.25</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0.7</v>
+        <v>6.98</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.41</v>
+        <v>4.07</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.51</v>
+        <v>5.07</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.63</v>
+        <v>6.32</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.67</v>
+        <v>6.73</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.08</v>
+        <v>0.77</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>1.11</v>
+        <v>11.06</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.38</v>
+        <v>3.76</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.52</v>
+        <v>5.19</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>45019.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.65</v>
+        <v>16.54</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.29</v>
+        <v>12.94</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.04</v>
+        <v>0.35</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>3.69</v>
+        <v>36.93</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>3.05</v>
+        <v>30.49</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.34</v>
+        <v>13.42</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>4.8</v>
+        <v>47.98</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>2.09</v>
+        <v>20.95</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.96</v>
+        <v>9.619999999999999</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.45</v>
+        <v>14.52</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.54</v>
+        <v>15.45</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.59</v>
+        <v>15.88</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.43</v>
+        <v>4.35</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.32</v>
+        <v>13.19</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>1.91</v>
+        <v>19.11</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>1.13</v>
+        <v>11.25</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.03</v>
+        <v>0.25</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.66</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>19.84</v>
+        <v>198.39</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>3.78</v>
+        <v>37.76</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.23</v>
+        <v>12.33</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>2.5</v>
+        <v>24.98</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.4</v>
+        <v>14.04</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.18</v>
+        <v>1.77</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>2.43</v>
+        <v>24.33</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>1.1</v>
+        <v>10.96</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>1.04</v>
+        <v>10.44</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>1.23</v>
+        <v>12.34</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1.63</v>
+        <v>16.25</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.04</v>
+        <v>0.42</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>4.35</v>
+        <v>43.48</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.75</v>
+        <v>7.54</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.52</v>
+        <v>15.24</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>45019.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.63</v>
+        <v>16.28</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.26</v>
+        <v>12.55</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.39</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>3.61</v>
+        <v>36.12</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>2.98</v>
+        <v>29.77</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.31</v>
+        <v>13.08</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>5.15</v>
+        <v>51.52</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>2.04</v>
+        <v>20.41</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.93</v>
+        <v>9.33</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1.4</v>
+        <v>14.02</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.49</v>
+        <v>14.95</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.54</v>
+        <v>15.44</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.42</v>
+        <v>4.23</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.29</v>
+        <v>12.89</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1.87</v>
+        <v>18.7</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>1.09</v>
+        <v>10.92</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.02</v>
+        <v>0.22</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.06</v>
+        <v>0.6</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>19.28</v>
+        <v>192.77</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>3.68</v>
+        <v>36.82</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.2</v>
+        <v>12.01</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>2.45</v>
+        <v>24.53</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.35</v>
+        <v>13.49</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.17</v>
+        <v>1.73</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>2.52</v>
+        <v>25.19</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>1.07</v>
+        <v>10.69</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>1</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>1.17</v>
+        <v>11.71</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.57</v>
+        <v>15.72</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.03</v>
+        <v>0.28</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>4.68</v>
+        <v>46.84</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.72</v>
+        <v>7.18</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.49</v>
+        <v>14.94</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>45019.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.01</v>
+        <v>10.15</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.79</v>
+        <v>7.86</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.02</v>
+        <v>0.21</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>2.27</v>
+        <v>22.65</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>1.86</v>
+        <v>18.63</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.82</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>3.47</v>
+        <v>34.72</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.29</v>
+        <v>12.85</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.59</v>
+        <v>5.9</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.89</v>
+        <v>8.869999999999999</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>0.97</v>
+        <v>9.68</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.27</v>
+        <v>2.66</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.8</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.18</v>
+        <v>11.77</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>6.87</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.02</v>
+        <v>0.15</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.39</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>11.84</v>
+        <v>118.43</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>2.32</v>
+        <v>23.21</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.75</v>
+        <v>7.53</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>1.54</v>
+        <v>15.42</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.85</v>
+        <v>8.539999999999999</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.11</v>
+        <v>1.08</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>1.66</v>
+        <v>16.61</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.67</v>
+        <v>6.72</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.63</v>
+        <v>6.34</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.74</v>
+        <v>7.44</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.99</v>
+        <v>9.93</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.02</v>
+        <v>0.21</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>3.16</v>
+        <v>31.61</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.45</v>
+        <v>4.54</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.369999999999999</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_338.xlsx
+++ b/DATA_goal/Junction_Flooding_338.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,70 +655,70 @@
         <v>45019.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>5.38</v>
+        <v>5.378</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>5.21</v>
+        <v>5.209</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>13.17</v>
+        <v>13.173</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>11.19</v>
+        <v>11.188</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>5.04</v>
+        <v>5.041</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>13.38</v>
+        <v>13.381</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>7.97</v>
+        <v>7.973</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>3.77</v>
+        <v>3.774</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>6.17</v>
+        <v>6.167</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>6.37</v>
+        <v>6.371</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>6.16</v>
+        <v>6.162</v>
       </c>
       <c r="N2" s="4" t="n">
         <v>1.68</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>4.81</v>
+        <v>4.805</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>6.85</v>
+        <v>6.849</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>4.45</v>
+        <v>4.447</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.3</v>
+        <v>0.297</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.42</v>
+        <v>0.425</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>72.19</v>
+        <v>72.19199999999999</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>14.31</v>
+        <v>14.308</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>4.64</v>
+        <v>4.642</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>8.51</v>
+        <v>8.505000000000001</v>
       </c>
       <c r="X2" s="4" t="n">
         <v>6.25</v>
@@ -727,31 +727,31 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>6.98</v>
+        <v>6.977</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>4.07</v>
+        <v>4.068</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>5.07</v>
+        <v>5.066</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>6.32</v>
+        <v>6.321</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>6.73</v>
+        <v>6.735</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.77</v>
+        <v>0.773</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>11.06</v>
+        <v>11.064</v>
       </c>
       <c r="AG2" s="4" t="n">
         <v>3.76</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>5.19</v>
+        <v>5.189</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>45019.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>16.54</v>
+        <v>16.537</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>12.94</v>
+        <v>12.942</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.35</v>
+        <v>0.354</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>36.93</v>
+        <v>36.933</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>30.49</v>
+        <v>30.486</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>13.42</v>
+        <v>13.421</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>47.98</v>
+        <v>47.984</v>
       </c>
       <c r="I3" s="4" t="n">
         <v>20.95</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>9.619999999999999</v>
+        <v>9.618</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>14.52</v>
+        <v>14.522</v>
       </c>
       <c r="L3" s="4" t="n">
         <v>15.45</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>15.88</v>
+        <v>15.881</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>4.35</v>
+        <v>4.346</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>13.19</v>
+        <v>13.194</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>19.11</v>
+        <v>19.113</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>11.25</v>
+        <v>11.251</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.25</v>
+        <v>0.255</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.66</v>
+        <v>0.655</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>198.39</v>
+        <v>198.394</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>37.76</v>
+        <v>37.759</v>
       </c>
       <c r="V3" s="4" t="n">
         <v>12.33</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>24.98</v>
+        <v>24.981</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>14.04</v>
+        <v>14.042</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.77</v>
+        <v>1.774</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>24.33</v>
+        <v>24.327</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>10.96</v>
+        <v>10.961</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>10.44</v>
+        <v>10.441</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>12.34</v>
+        <v>12.335</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>16.25</v>
+        <v>16.251</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.42</v>
+        <v>0.419</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>43.48</v>
+        <v>43.481</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>7.54</v>
+        <v>7.537</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>15.24</v>
+        <v>15.239</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>45019.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>16.28</v>
+        <v>16.277</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>12.55</v>
+        <v>12.555</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.39</v>
+        <v>0.389</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>36.12</v>
+        <v>36.124</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>29.77</v>
+        <v>29.771</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>13.08</v>
+        <v>13.084</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>51.52</v>
+        <v>51.523</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>20.41</v>
+        <v>20.406</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>9.33</v>
+        <v>9.324999999999999</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>14.02</v>
+        <v>14.016</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>14.95</v>
+        <v>14.949</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>15.44</v>
+        <v>15.438</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>4.23</v>
+        <v>4.227</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>12.89</v>
+        <v>12.888</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>18.7</v>
+        <v>18.703</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>10.92</v>
+        <v>10.922</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.22</v>
+        <v>0.218</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.6</v>
+        <v>0.599</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>192.77</v>
+        <v>192.773</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>36.82</v>
+        <v>36.818</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>12.01</v>
+        <v>12.015</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>24.53</v>
+        <v>24.531</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>13.49</v>
+        <v>13.494</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.73</v>
+        <v>1.725</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>25.19</v>
+        <v>25.185</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>10.69</v>
+        <v>10.692</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>9.949999999999999</v>
+        <v>9.954000000000001</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>11.71</v>
+        <v>11.711</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>15.72</v>
+        <v>15.719</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.28</v>
+        <v>0.281</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>46.84</v>
+        <v>46.836</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>7.18</v>
+        <v>7.184</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>14.94</v>
+        <v>14.944</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>9.369999999999999</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>45019.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>22.24</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>16.89</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>48.85</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>40.29</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>17.67</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>66.87</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>18.59</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>19.89</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>20.78</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>17.48</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>25.22</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>14.65</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>261.52</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>49.37</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>16.22</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>17.82</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>32.93</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>14.39</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>12.98</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>15.26</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>20.92</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>60.61</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>9.449999999999999</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>20.25</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_338.xlsx
+++ b/DATA_goal/Junction_Flooding_338.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -970,100 +970,204 @@
         <v>10.15</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>7.86</v>
+        <v>7.862</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.21</v>
+        <v>0.214</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>22.65</v>
+        <v>22.653</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>18.63</v>
+        <v>18.629</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>8.199999999999999</v>
+        <v>8.196</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>34.72</v>
+        <v>34.723</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>12.85</v>
+        <v>12.853</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>5.9</v>
+        <v>5.902</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>8.869999999999999</v>
+        <v>8.872999999999999</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>9.449999999999999</v>
+        <v>9.446</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>9.68</v>
+        <v>9.677</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>2.66</v>
+        <v>2.659</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>8.050000000000001</v>
+        <v>8.045999999999999</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>11.77</v>
+        <v>11.772</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>6.87</v>
+        <v>6.865</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.15</v>
+        <v>0.151</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.39</v>
+        <v>0.389</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>118.43</v>
+        <v>118.427</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>23.21</v>
+        <v>23.215</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>7.53</v>
+        <v>7.525</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>15.42</v>
+        <v>15.418</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>8.539999999999999</v>
+        <v>8.545</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.08</v>
+        <v>1.084</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>16.61</v>
+        <v>16.605</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>6.72</v>
+        <v>6.722</v>
       </c>
       <c r="AB5" s="4" t="n">
         <v>6.34</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>7.44</v>
+        <v>7.442</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>9.93</v>
+        <v>9.933</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.21</v>
+        <v>0.209</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>31.61</v>
+        <v>31.612</v>
       </c>
       <c r="AG5" s="4" t="n">
         <v>4.54</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>9.369999999999999</v>
+        <v>9.368</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>45019.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>22.24</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>16.89</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>48.85</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>40.29</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>17.67</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>66.87</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>18.59</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>19.89</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>20.78</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>17.48</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>25.22</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>14.65</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>261.52</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>49.37</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>16.22</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>17.82</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>32.93</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>14.39</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>12.98</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>15.26</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>20.92</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>60.61</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>20.25</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_338.xlsx
+++ b/DATA_goal/Junction_Flooding_338.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -970,204 +970,100 @@
         <v>10.15</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>7.862</v>
+        <v>7.86</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.214</v>
+        <v>0.21</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>22.653</v>
+        <v>22.65</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>18.629</v>
+        <v>18.63</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>8.196</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>34.723</v>
+        <v>34.72</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>12.853</v>
+        <v>12.85</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>5.902</v>
+        <v>5.9</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>8.872999999999999</v>
+        <v>8.869999999999999</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>9.446</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>9.677</v>
+        <v>9.68</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>2.659</v>
+        <v>2.66</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>8.045999999999999</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>11.772</v>
+        <v>11.77</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>6.865</v>
+        <v>6.87</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.151</v>
+        <v>0.15</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.389</v>
+        <v>0.39</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>118.427</v>
+        <v>118.43</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>23.215</v>
+        <v>23.21</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>7.525</v>
+        <v>7.53</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>15.418</v>
+        <v>15.42</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>8.545</v>
+        <v>8.539999999999999</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.084</v>
+        <v>1.08</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>16.605</v>
+        <v>16.61</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>6.722</v>
+        <v>6.72</v>
       </c>
       <c r="AB5" s="4" t="n">
         <v>6.34</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>7.442</v>
+        <v>7.44</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>9.933</v>
+        <v>9.93</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.209</v>
+        <v>0.21</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>31.612</v>
+        <v>31.61</v>
       </c>
       <c r="AG5" s="4" t="n">
         <v>4.54</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>9.368</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>45019.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>22.24</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>16.89</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>48.85</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>40.29</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>17.67</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>66.87</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>18.59</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>19.89</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>20.78</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>17.48</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>25.22</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>14.65</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>261.52</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>49.37</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>16.22</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>17.82</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>32.93</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>14.39</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>12.98</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>15.26</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>20.92</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>60.61</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>9.449999999999999</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>20.25</v>
+        <v>9.369999999999999</v>
       </c>
     </row>
   </sheetData>
